--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +746,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +781,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +816,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,26 +835,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F12" s="3">
         <v>12200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>11600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +866,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +901,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +936,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +971,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,26 +987,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F17" s="3">
         <v>15900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>14000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +1018,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,17 +1033,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1053,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1072,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,17 +1083,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1103,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1045,17 +1118,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-13500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1138,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1076,14 +1155,14 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1094,26 +1173,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-15100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1208,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,26 +1225,32 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,26 +1278,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-15100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,26 +1313,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1348,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1488,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,17 +1503,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,26 +1523,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1558,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,26 +1593,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,31 +1628,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1668,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,26 +1702,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F41" s="3">
         <v>30800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>41800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>49500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,23 +1733,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>104700</v>
+      </c>
+      <c r="F42" s="3">
         <v>95400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>42400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1768,14 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1803,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,26 +1838,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,26 +1873,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>162400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>119400</v>
+      </c>
+      <c r="F46" s="3">
         <v>129300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>84900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>49800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,23 +1908,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F47" s="3">
         <v>27300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>16100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,26 +1943,32 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1978,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2013,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,26 +2083,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +2118,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,26 +2153,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>146700</v>
+      </c>
+      <c r="F54" s="3">
         <v>158300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>104300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>51500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,26 +2222,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2253,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,26 +2288,32 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,26 +2323,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F60" s="3">
         <v>10900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2358,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,25 +2393,31 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>3100</v>
       </c>
       <c r="E62" s="3">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,26 +2533,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F66" s="3">
         <v>12100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2333,17 +2668,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>119800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>59800</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,26 +2723,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-51900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2758,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,26 +2863,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>130300</v>
+      </c>
+      <c r="F76" s="3">
         <v>146200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-28000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-16100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2933,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,26 +2973,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +3008,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,25 +3027,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +3058,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,26 +3233,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3268,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,25 +3287,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2877,8 +3318,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,25 +3388,31 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-64200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-58400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3423,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,25 +3578,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>68400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>58800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,19 +3613,25 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3151,26 +3648,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3681,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,8 +718,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,29 +850,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E12" s="3">
         <v>17300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,29 +1015,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E17" s="3">
         <v>22000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1051,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1033,20 +1063,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,17 +1120,17 @@
         <v>700</v>
       </c>
       <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1118,16 +1155,16 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-5900</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1161,11 +1201,11 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1179,29 +1219,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1225,8 +1271,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1286,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,29 +1333,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,29 +1371,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,17 +1576,17 @@
         <v>-700</v>
       </c>
       <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,29 +1599,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,29 +1675,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,29 +1790,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E41" s="3">
         <v>72000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,26 +1826,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E42" s="3">
         <v>87500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>104700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>95400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>42400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1774,8 +1864,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,29 +1940,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,29 +1978,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>152100</v>
+      </c>
+      <c r="E46" s="3">
         <v>162400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>119400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>129300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>84900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,26 +2016,29 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>6500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,29 +2054,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E48" s="3">
         <v>3700</v>
       </c>
       <c r="F48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,8 +2092,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,8 +2206,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2098,20 +2218,20 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,29 +2282,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E54" s="3">
         <v>172800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>146700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>158300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>104300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>51500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,29 +2354,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2294,29 +2428,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>10300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,29 +2466,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E60" s="3">
         <v>13500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2399,29 +2542,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,29 +2694,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E66" s="3">
         <v>16700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,14 +2842,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>119800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>59800</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,29 +2900,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-114500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,29 +3052,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E76" s="3">
         <v>156100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>130300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>146200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-28000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-16100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,29 +3171,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,13 +3240,13 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,29 +3453,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3301,16 +3522,16 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,28 +3621,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E94" s="3">
         <v>33800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-64200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,28 +3827,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>44700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>68400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>58800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3619,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3633,8 +3882,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3654,29 +3903,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E102" s="3">
         <v>60100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,32 +864,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E12" s="3">
         <v>18600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,32 +1042,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E17" s="3">
         <v>23600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,23 +1093,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-22000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,23 +1151,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>700</v>
       </c>
       <c r="G20" s="3">
+        <v>700</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,17 +1192,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-21200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1204,11 +1244,11 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1222,32 +1262,35 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1274,8 +1320,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1289,8 +1335,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,32 +1385,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,32 +1426,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,23 +1643,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-700</v>
       </c>
       <c r="G32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,32 +1672,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,32 +1754,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,32 +1877,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E41" s="3">
         <v>83000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,29 +1916,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E42" s="3">
         <v>66300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>87500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>104700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>95400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>42400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1957,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,32 +2039,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,32 +2080,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E46" s="3">
         <v>152100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>162400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>119400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>129300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>84900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>49800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2028,20 +2133,20 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>6500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,32 +2162,35 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3700</v>
       </c>
       <c r="F48" s="3">
         <v>3700</v>
       </c>
       <c r="G48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,32 +2326,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E54" s="3">
         <v>155800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>172800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>146700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>158300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>104300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>51500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,32 +2485,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,8 +2565,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2440,23 +2577,23 @@
         <v>13600</v>
       </c>
       <c r="E59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F59" s="3">
         <v>10300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,32 +2606,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E60" s="3">
         <v>16600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,32 +2688,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,32 +2852,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E66" s="3">
         <v>19600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,14 +3013,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>119800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>59800</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,32 +3074,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-114500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-51900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,32 +3238,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E76" s="3">
         <v>136200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>156100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>130300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>146200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-28000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-16100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,32 +3366,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3243,10 +3442,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,32 +3670,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,13 +3730,14 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -3525,16 +3746,16 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,31 +3851,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E94" s="3">
         <v>28000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>33800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-64200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,31 +4073,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>44700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>68400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>58800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3885,8 +4134,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E102" s="3">
         <v>11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +725,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +769,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +877,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E12" s="3">
         <v>16000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1068,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1110,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,26 +1122,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,26 +1184,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>700</v>
       </c>
       <c r="G20" s="3">
         <v>700</v>
       </c>
       <c r="H20" s="3">
+        <v>700</v>
+      </c>
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1216,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,20 +1228,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,13 +1260,16 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>300</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1247,11 +1286,11 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1265,35 +1304,38 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1348,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1323,8 +1368,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1338,8 +1383,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1436,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1480,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,26 +1712,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-700</v>
       </c>
       <c r="G32" s="3">
         <v>-700</v>
       </c>
       <c r="H32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1744,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1832,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +1963,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E41" s="3">
         <v>48800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>83000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,32 +2005,35 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E42" s="3">
         <v>85000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>66300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>87500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>104700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>95400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>42400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,8 +2049,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2093,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,35 +2137,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,35 +2181,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>236400</v>
+      </c>
+      <c r="E46" s="3">
         <v>138200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>152100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>162400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>119400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>129300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>84900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>49800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2136,20 +2240,20 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>6500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>23300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>16100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,35 +2269,38 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3700</v>
       </c>
       <c r="G48" s="3">
         <v>3700</v>
       </c>
       <c r="H48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2313,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,35 +2445,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>240900</v>
+      </c>
+      <c r="E54" s="3">
         <v>141900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>155800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>172800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>146700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>158300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>104300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>51500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,35 +2615,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2657,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,35 +2701,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13600</v>
+        <v>15300</v>
       </c>
       <c r="E59" s="3">
         <v>13600</v>
       </c>
       <c r="F59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G59" s="3">
         <v>10300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,35 +2745,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E60" s="3">
         <v>18800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2789,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,35 +2833,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E62" s="3">
         <v>2800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E66" s="3">
         <v>21600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3016,14 +3183,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>119800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>59800</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,35 +3247,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-173200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-136000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-114500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-51900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3423,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E76" s="3">
         <v>120300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>136200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>130300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>146200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-28000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-16100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3560,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,10 +3643,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3886,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3740,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -3749,16 +3969,16 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,34 +4080,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>28000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>33800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-64200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4124,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,34 +4318,37 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>44700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>68400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>58800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4117,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4137,8 +4385,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4158,35 +4406,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-34300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,8 +729,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,38 +891,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E12" s="3">
         <v>29700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,38 +1095,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E17" s="3">
         <v>37000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,8 +1140,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,29 +1152,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1208,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,29 +1218,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
       </c>
       <c r="H20" s="3">
         <v>700</v>
       </c>
       <c r="I20" s="3">
+        <v>700</v>
+      </c>
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,8 +1253,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,23 +1265,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-21400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,17 +1300,20 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,11 +1329,11 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1307,38 +1347,41 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1371,8 +1417,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1386,8 +1432,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,38 +1488,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,38 +1535,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1770,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,29 +1782,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
       </c>
       <c r="H32" s="3">
         <v>-700</v>
       </c>
       <c r="I32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,38 +1817,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,38 +1911,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,38 +2050,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E41" s="3">
         <v>142100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>83000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>72000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,35 +2095,38 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E42" s="3">
         <v>89700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>85000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>66300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>87500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>104700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>95400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>42400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,8 +2142,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,38 +2236,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,38 +2283,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>217800</v>
+      </c>
+      <c r="E46" s="3">
         <v>236400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>138200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>152100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>162400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>119400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>129300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>84900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,13 +2330,16 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2243,20 +2348,20 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>6500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>16100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,38 +2377,41 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
         <v>3200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3700</v>
       </c>
       <c r="H48" s="3">
         <v>3700</v>
       </c>
       <c r="I48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,38 +2565,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E54" s="3">
         <v>240900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>141900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>155800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>172800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>146700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>158300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>104300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>51500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,38 +2746,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2704,38 +2838,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E59" s="3">
         <v>15300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>13600</v>
       </c>
       <c r="F59" s="3">
         <v>13600</v>
       </c>
       <c r="G59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H59" s="3">
         <v>10300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,38 +2885,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2836,38 +2979,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E62" s="3">
         <v>50300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,38 +3167,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E66" s="3">
         <v>68800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,14 +3354,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>119800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>59800</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,38 +3421,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-223700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-173200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-136000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-114500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-51900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,38 +3609,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E76" s="3">
         <v>172100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>120300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>136200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>156100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>130300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>146200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-28000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,38 +3755,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,10 +3845,10 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,38 +4103,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -3972,16 +4193,16 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,37 +4310,40 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>28000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>33800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,37 +4564,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E100" s="3">
         <v>134500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>44700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>68400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>58800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4388,8 +4637,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4409,38 +4658,41 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E102" s="3">
         <v>93300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,31 +733,34 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,41 +905,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E12" s="3">
         <v>38100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E17" s="3">
         <v>47600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,41 +1170,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-21700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,41 +1242,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,35 +1290,38 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-36800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-21200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,20 +1340,23 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1332,11 +1372,11 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1350,41 +1390,44 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-50500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1420,8 +1466,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1435,8 +1481,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-50500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-50500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,41 +1840,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-50500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-50500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,41 +2137,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E41" s="3">
         <v>90700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>142100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>83000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>72000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,38 +2185,41 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E42" s="3">
         <v>122400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>89700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>85000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>66300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>87500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>104700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>95400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>42400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2145,8 +2235,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,41 +2335,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,41 +2385,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>228400</v>
+      </c>
+      <c r="E46" s="3">
         <v>217800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>236400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>138200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>152100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>162400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>129300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>84900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,16 +2435,19 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2351,20 +2456,20 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>6500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>27300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,41 +2485,44 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3700</v>
       </c>
       <c r="I48" s="3">
         <v>3700</v>
       </c>
       <c r="J48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2685,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2577,32 +2697,32 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,41 +2785,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>247700</v>
+      </c>
+      <c r="E54" s="3">
         <v>222200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>240900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>141900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>155800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>172800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>146700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>158300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>104300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,41 +2877,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2841,41 +2975,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E59" s="3">
         <v>29400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>13600</v>
       </c>
       <c r="G59" s="3">
         <v>13600</v>
       </c>
       <c r="H59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I59" s="3">
         <v>10300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,41 +3025,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E60" s="3">
         <v>35000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,41 +3125,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E62" s="3">
         <v>53300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,41 +3325,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151900</v>
+      </c>
+      <c r="E66" s="3">
         <v>88400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,14 +3525,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>119800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>59800</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,41 +3595,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-267600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-223700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-173200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-136000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-114500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-91200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-51900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,41 +3795,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>95700</v>
+      </c>
+      <c r="E76" s="3">
         <v>133900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>172100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>120300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>136200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>156100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>130300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>146200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-28000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-50500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,10 +4047,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-36300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4187,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -4196,16 +4417,16 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,40 +4540,43 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>28000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>33800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,40 +4810,43 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E100" s="3">
         <v>6600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>134500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>44700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>68400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>58800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4640,8 +4889,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4661,41 +4910,44 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-51400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>93300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-34300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>60100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,17 +737,20 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -762,8 +766,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,44 +919,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E12" s="3">
         <v>35000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E17" s="3">
         <v>48400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>47600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,17 +1200,20 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-37400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1199,18 +1229,18 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,17 +1276,18 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1269,18 +1303,18 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,17 +1327,20 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-39000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,12 +1356,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-15100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,23 +1380,26 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,11 +1415,11 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-43900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-50500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1469,8 +1515,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1484,8 +1530,8 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-43900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-50500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-43900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-50500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,17 +1910,20 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,18 +1939,18 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-43900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-43900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,44 +2224,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E41" s="3">
         <v>91900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>142100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>83000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>72000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,41 +2275,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E42" s="3">
         <v>131900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>122400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>89700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>85000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>66300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>87500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>104700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>95400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>42400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,31 +2328,34 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,44 +2434,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,44 +2487,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>196800</v>
+      </c>
+      <c r="E46" s="3">
         <v>228400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>217800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>236400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>138200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>152100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>162400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>119400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>129300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>84900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,19 +2540,22 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>15000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="E47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2459,20 +2564,20 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>6500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>23300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,44 +2593,47 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3700</v>
       </c>
       <c r="J48" s="3">
         <v>3700</v>
       </c>
       <c r="K48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,31 +2646,34 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>19000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,44 +2805,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
         <v>1400</v>
       </c>
       <c r="F52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,44 +2911,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>235200</v>
+      </c>
+      <c r="E54" s="3">
         <v>247700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>222200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>240900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>141900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>155800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>172800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>146700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>158300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>104300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>51500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,44 +3008,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,44 +3112,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E59" s="3">
         <v>23600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>13600</v>
       </c>
       <c r="H59" s="3">
         <v>13600</v>
       </c>
       <c r="I59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J59" s="3">
         <v>10300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,44 +3165,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E60" s="3">
         <v>29000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,44 +3271,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E62" s="3">
         <v>122900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,44 +3483,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E66" s="3">
         <v>151900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>88400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,14 +3696,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>119800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>59800</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,44 +3769,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-314700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-267600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-223700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-173200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-136000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-91200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,44 +3981,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E76" s="3">
         <v>95700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>133900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>172100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>120300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>136200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>156100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>130300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>146200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-28000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-16100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-43900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4050,10 +4249,10 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-36300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4613,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4411,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -4420,16 +4641,16 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,43 +4770,46 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>28000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>33800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,43 +5056,46 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>65900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>134500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>44700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>68400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>58800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4892,8 +5141,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-51400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>93300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>60100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,20 +740,23 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -793,8 +796,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,47 +932,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E12" s="3">
         <v>30500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1175,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>47800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>47600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,20 +1229,23 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-42800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,18 +1261,18 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,20 +1309,21 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,18 +1339,18 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,20 +1363,23 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-41300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-39000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1359,12 +1395,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-15100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,26 +1419,29 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1418,11 +1457,11 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1436,47 +1475,50 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-47100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-43900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-50500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1531,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1518,8 +1563,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1533,8 +1578,8 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1542,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1643,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-47100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-43900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-50500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1699,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-47100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-43900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-50500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,20 +1979,23 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,18 +2011,18 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,47 +2035,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-47100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-43900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-50500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2147,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-47100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-43900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-50500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,47 +2310,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E41" s="3">
         <v>55800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>142100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>83000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,44 +2364,47 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>125200</v>
+      </c>
+      <c r="E42" s="3">
         <v>134200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>131900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>122400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>89700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>85000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>66300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>87500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>104700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>95400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>42400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,17 +2420,20 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2357,8 +2449,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2384,8 +2476,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,47 +2532,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,47 +2588,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>166600</v>
+      </c>
+      <c r="E46" s="3">
         <v>196800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>228400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>217800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>236400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>138200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>152100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>162400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>119400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>129300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>84900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>49800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,22 +2644,25 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="3">
         <v>15000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="F47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2567,20 +2671,20 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>6500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,47 +2700,50 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3700</v>
       </c>
       <c r="K48" s="3">
         <v>3700</v>
       </c>
       <c r="L48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,17 +2756,20 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E49" s="3">
         <v>19000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2675,8 +2785,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2702,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,47 +2924,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1400</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
       </c>
       <c r="G52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,47 +3036,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>294700</v>
+      </c>
+      <c r="E54" s="3">
         <v>235200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>247700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>222200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>240900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>141900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>155800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>172800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>146700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>158300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>51500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,47 +3138,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3192,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,47 +3248,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E59" s="3">
         <v>45400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>13600</v>
       </c>
       <c r="I59" s="3">
         <v>13600</v>
       </c>
       <c r="J59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,47 +3304,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E60" s="3">
         <v>50400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6500</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3360,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,47 +3416,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E62" s="3">
         <v>128400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>122900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,47 +3640,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>174400</v>
+      </c>
+      <c r="E66" s="3">
         <v>178800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>151900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>88400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,14 +3866,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>119800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>59800</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,47 +3942,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-314700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-267600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-223700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-173200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-136000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-91200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,47 +4166,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>120200</v>
+      </c>
+      <c r="E76" s="3">
         <v>56400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>95700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>133900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>172100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>120300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>136200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>156100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>130300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>146200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-28000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-16100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4339,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-47100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-43900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-50500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,13 +4419,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4252,10 +4450,10 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4753,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-34200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-36300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,8 +4833,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4635,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -4644,16 +4864,16 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,46 +4999,49 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>28000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>33800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4826,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,46 +5301,49 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>65900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>134500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>44700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>68400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>58800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5144,8 +5392,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -5165,47 +5413,50 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-51400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>93300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>60100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,23 +744,26 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -799,16 +803,19 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -855,16 +862,19 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1200</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,50 +946,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E12" s="3">
         <v>27800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>35000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,31 +1062,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-108000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,50 +1202,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>45600</v>
       </c>
       <c r="E17" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="F17" s="3">
         <v>47800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>47600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,23 +1259,26 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-32700</v>
       </c>
       <c r="E18" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-42800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,18 +1294,18 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-15900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,23 +1343,24 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1342,18 +1376,18 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,23 +1400,26 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-32500</v>
       </c>
       <c r="E21" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-41300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-39000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,12 +1435,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-15100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,20 +1471,20 @@
         <v>3800</v>
       </c>
       <c r="E22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F22" s="3">
         <v>5700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1460,11 +1500,11 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1478,50 +1518,53 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E23" s="3">
         <v>57600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-47100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-43900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-50500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,8 +1577,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1566,8 +1612,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1581,8 +1627,8 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,50 +1695,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-36600</v>
       </c>
       <c r="E26" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-47100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-43900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-50500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,50 +1754,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-36600</v>
       </c>
       <c r="E27" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-47100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-43900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-50500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,23 +2049,26 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2014,18 +2084,18 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,50 +2108,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-36600</v>
       </c>
       <c r="E33" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-47100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-43900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-50500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,50 +2226,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-36600</v>
       </c>
       <c r="E35" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-47100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-43900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-50500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,50 +2397,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E41" s="3">
         <v>31300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>90700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>142100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>83000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,47 +2454,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E42" s="3">
         <v>125200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>134200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>131900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>122400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>89700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>85000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>66300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>87500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>104700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>95400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>42400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2423,20 +2513,23 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>7900</v>
       </c>
       <c r="E43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2545,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2479,31 +2572,34 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2535,50 +2631,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,50 +2690,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E46" s="3">
         <v>166600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>196800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>228400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>217800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>236400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>138200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>152100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>162400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>119400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>129300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>84900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>49800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,25 +2749,28 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>5000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>15000</v>
       </c>
       <c r="F47" s="3">
         <v>15000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="G47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2674,20 +2779,20 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>6500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,50 +2808,53 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3700</v>
       </c>
       <c r="L48" s="3">
         <v>3700</v>
       </c>
       <c r="M48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2759,20 +2867,23 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E49" s="3">
         <v>18700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,8 +2899,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,50 +3044,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>102000</v>
       </c>
       <c r="E52" s="3">
+        <v>101800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1400</v>
       </c>
       <c r="G52" s="3">
         <v>1400</v>
       </c>
       <c r="H52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,50 +3162,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278100</v>
+      </c>
+      <c r="E54" s="3">
         <v>294700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>235200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>247700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>222200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>240900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>141900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>155800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>172800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>146700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>158300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>51500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,50 +3269,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3326,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3251,50 +3385,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E59" s="3">
         <v>33400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>13600</v>
       </c>
       <c r="J59" s="3">
         <v>13600</v>
       </c>
       <c r="K59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L59" s="3">
         <v>10300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,50 +3444,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E60" s="3">
         <v>42600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,8 +3503,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3419,50 +3562,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E62" s="3">
         <v>131800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>128400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>122900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>50300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,50 +3798,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E66" s="3">
         <v>174400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>178800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>151900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>88400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,14 +4037,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>119800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>59800</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,50 +4116,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-257200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-314700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-267600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-223700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-173200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-136000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-114500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-91200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,50 +4352,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E76" s="3">
         <v>120200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>95700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>133900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>172100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>120300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>136200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>156100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>130300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>146200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-28000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,50 +4534,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-36600</v>
       </c>
       <c r="E81" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-47100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-43900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-50500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4618,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4429,7 +4628,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4453,10 +4652,10 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,50 +4970,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-34200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-36300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,13 +5054,14 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4858,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -4867,16 +5088,16 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,49 +5229,52 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E94" s="3">
         <v>108000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>28000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>33800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,49 +5547,52 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>65900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>134500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>44700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>68400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>58800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5395,8 +5644,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>75500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-36100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-51400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>93300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,26 +748,29 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E8" s="3">
         <v>12900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -806,20 +810,23 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -865,20 +872,23 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,53 +960,54 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E12" s="3">
         <v>24100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>35000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,20 +1082,23 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-108000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1111,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,53 +1229,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E17" s="3">
         <v>45600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-59300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>47800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>47600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,26 +1289,29 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,18 +1327,18 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-15900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,26 +1377,27 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1379,18 +1413,18 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,26 +1437,29 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-41300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-39000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,12 +1475,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-15100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,32 +1499,35 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E22" s="3">
         <v>3800</v>
       </c>
       <c r="F22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,11 +1543,11 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1521,53 +1561,56 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>57600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-47100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-43900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-50500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,13 +1623,16 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-6600</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1615,8 +1661,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1630,8 +1676,8 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,53 +1747,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>57500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-47100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-43900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-50500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,53 +1809,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>57500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-47100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-43900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-50500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,26 +2119,29 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,18 +2157,18 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,53 +2181,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>57500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-47100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-43900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-50500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,53 +2305,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>57500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-47100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-43900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-50500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,58 +2367,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,53 +2484,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E41" s="3">
         <v>46300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>90700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>142100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,50 +2544,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E42" s="3">
         <v>93600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>125200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>134200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>131900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>122400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>89700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>85000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>66300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>87500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>104700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>95400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>42400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2516,23 +2606,26 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,8 +2641,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2575,20 +2668,23 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2601,8 +2697,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2634,53 +2730,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,53 +2792,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E46" s="3">
         <v>155300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>166600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>196800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>228400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>217800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>236400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>138200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>152100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>162400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>119400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>129300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>84900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>49800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +2854,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2761,19 +2866,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>5000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>15000</v>
       </c>
       <c r="G47" s="3">
         <v>15000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="H47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2782,20 +2887,20 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>6500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2811,53 +2916,56 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3700</v>
       </c>
       <c r="M48" s="3">
         <v>3700</v>
       </c>
       <c r="N48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2870,23 +2978,26 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E49" s="3">
         <v>18500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2902,8 +3013,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,53 +3164,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E52" s="3">
         <v>102000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>101800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1400</v>
       </c>
       <c r="H52" s="3">
         <v>1400</v>
       </c>
       <c r="I52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,53 +3288,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E54" s="3">
         <v>278100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>294700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>235200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>247700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>222200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>240900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>141900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>172800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>146700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>158300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>104300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>51500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,53 +3400,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3460,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3388,53 +3522,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E59" s="3">
         <v>29600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>13600</v>
       </c>
       <c r="K59" s="3">
         <v>13600</v>
       </c>
       <c r="L59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="M59" s="3">
         <v>10300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,53 +3584,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E60" s="3">
         <v>34600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3565,53 +3708,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E62" s="3">
         <v>134700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>131800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>128400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>122900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>50300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,53 +3956,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E66" s="3">
         <v>169200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>174400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>178800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>151900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>88400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4040,14 +4208,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>119800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>59800</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,53 +4290,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-320700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-293800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-257200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-314700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-267600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-223700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-173200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-136000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-114500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-51900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,53 +4538,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E76" s="3">
         <v>108900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>120200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>95700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>133900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>172100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>120300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>136200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>156100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>130300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>146200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-28000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,58 +4662,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,53 +4729,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>57500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-47100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-43900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-50500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,19 +4817,20 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4655,10 +4854,10 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,53 +5187,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-39700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-36300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,16 +5275,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5082,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -5091,16 +5312,16 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,52 +5459,55 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E94" s="3">
         <v>36500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>108000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-32800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>28000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>33800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,52 +5793,55 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E100" s="3">
         <v>18100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>65900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>134500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>44700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>68400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>58800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5647,8 +5896,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -5668,53 +5917,56 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>75500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-51400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>93300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,29 +752,32 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E8" s="3">
         <v>17500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -813,23 +817,26 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,23 +882,26 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E10" s="3">
         <v>15000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,56 +974,57 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E12" s="3">
         <v>25400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>35000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>38100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4900</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,12 +1116,12 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-108000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,8 +1134,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,56 +1256,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E17" s="3">
         <v>48900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-59300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>47800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>47600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,29 +1319,32 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>62400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-42800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,18 +1360,18 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-15900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,29 +1411,30 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,18 +1450,18 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,29 +1474,32 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>61700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-41300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-39000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1478,12 +1515,12 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-15100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,35 +1539,38 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3800</v>
       </c>
       <c r="F22" s="3">
         <v>3800</v>
       </c>
       <c r="G22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1546,11 +1586,11 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1564,56 +1604,59 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>57600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-47100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-43900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-50500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,17 +1669,20 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1664,8 +1710,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1679,8 +1725,8 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,56 +1799,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>57500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-47100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-43900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-50500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-37200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,56 +1864,59 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>57500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-47100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-43900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-50500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,29 +2189,32 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2160,18 +2230,18 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,56 +2254,59 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>57500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-47100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-43900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-50500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,56 +2384,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>57500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-47100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-43900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-50500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,56 +2571,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E41" s="3">
         <v>55300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>90700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>142100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>83000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,53 +2634,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E42" s="3">
         <v>69700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>93600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>125200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>134200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>131900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>122400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>89700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>85000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>66300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>87500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>104700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>95400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>42400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,26 +2699,29 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E43" s="3">
         <v>14000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2644,8 +2737,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2671,23 +2764,26 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E44" s="3">
         <v>4500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2700,8 +2796,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2733,56 +2829,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,56 +2894,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215600</v>
+      </c>
+      <c r="E46" s="3">
         <v>147200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>155300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>166600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>196800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>228400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>217800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>236400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>138200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>152100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>162400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>119400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>129300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>84900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>49800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2869,19 +2974,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>5000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>15000</v>
       </c>
       <c r="H47" s="3">
         <v>15000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="I47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2890,20 +2995,20 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>6500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>16100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2919,56 +3024,59 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3700</v>
       </c>
       <c r="N48" s="3">
         <v>3700</v>
       </c>
       <c r="O48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,26 +3089,29 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E49" s="3">
         <v>46100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,8 +3127,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,8 +3284,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3176,47 +3296,47 @@
         <v>101700</v>
       </c>
       <c r="E52" s="3">
+        <v>101700</v>
+      </c>
+      <c r="F52" s="3">
         <v>102000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>101800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1400</v>
       </c>
       <c r="I52" s="3">
         <v>1400</v>
       </c>
       <c r="J52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,56 +3414,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>364300</v>
+      </c>
+      <c r="E54" s="3">
         <v>297200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>294700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>235200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>247700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>222200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>240900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>141900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>172800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>146700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>158300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>51500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,56 +3531,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,8 +3594,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3525,56 +3659,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E59" s="3">
         <v>37100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>13600</v>
       </c>
       <c r="L59" s="3">
         <v>13600</v>
       </c>
       <c r="M59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="N59" s="3">
         <v>10300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,56 +3724,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E60" s="3">
         <v>45200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3711,56 +3854,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E62" s="3">
         <v>141400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>134700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>131800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>128400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>122900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>53300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,56 +4114,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>195100</v>
+      </c>
+      <c r="E66" s="3">
         <v>186500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>169200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>174400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>178800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>151900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>88400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4211,14 +4379,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>119800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>59800</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,56 +4464,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-356400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-320700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-293800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-257200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-314700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-267600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-223700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-173200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-136000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-114500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-91200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-51900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,56 +4724,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E76" s="3">
         <v>110700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>108900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>120200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>95700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>172100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>120300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>136200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>156100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>130300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>146200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-16100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,56 +4924,59 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>57500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-47100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-43900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-50500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,22 +5016,23 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4857,10 +5056,10 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,56 +5404,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-39700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-34200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-40200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-36300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,19 +5496,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5306,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -5315,16 +5536,16 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,55 +5689,58 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="E94" s="3">
         <v>24000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>36500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>108000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>28000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>33800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,55 +6039,58 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E100" s="3">
         <v>5200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>65900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>134500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>44700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>68400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>58800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5899,8 +6148,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
@@ -5920,56 +6169,59 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E102" s="3">
         <v>9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>75500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-51400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>93300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,84 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,32 +755,35 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E8" s="3">
         <v>18800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,8 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -820,26 +823,29 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -885,26 +891,29 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E10" s="3">
         <v>15900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,59 +987,60 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E12" s="3">
         <v>26200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>35000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>38100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4900</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1053,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,13 +1121,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1119,12 +1138,12 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>-108000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,8 +1156,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1170,8 +1189,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1257,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,59 +1282,60 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E17" s="3">
         <v>51700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-59300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>47800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>47600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,32 +1348,35 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>62400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-42800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37400</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,18 +1392,18 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1416,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,32 +1444,33 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1453,18 +1486,18 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1477,32 +1510,35 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>61700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-41300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-39000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,12 +1554,12 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,38 +1578,41 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3800</v>
       </c>
       <c r="G22" s="3">
         <v>3800</v>
       </c>
       <c r="H22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,11 +1628,11 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1607,59 +1646,62 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>57600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-47100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-43900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-50500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,20 +1714,23 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-6600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1713,8 +1758,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1728,8 +1773,8 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1737,8 +1782,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,59 +1850,62 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>57500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-47100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-50500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,59 +1918,62 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>57500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-47100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-50500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +1986,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2122,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,32 +2258,35 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2233,18 +2302,18 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,59 +2326,62 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>57500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-47100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-43900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-50500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2394,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,59 +2462,62 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>57500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-47100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-43900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-50500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,64 +2530,67 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2603,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,59 +2657,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E41" s="3">
         <v>35800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>90700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>142100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>83000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>49500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,56 +2723,59 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E42" s="3">
         <v>149600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>69700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>93600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>125200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>134200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>131900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>122400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>89700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>85000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>66300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>87500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>104700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>95400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>42400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,29 +2791,32 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2832,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2767,26 +2859,29 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E44" s="3">
         <v>6900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1500</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2799,8 +2894,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2832,59 +2927,62 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,59 +2995,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>190200</v>
+      </c>
+      <c r="E46" s="3">
         <v>215600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>147200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>155300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>166600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>196800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>228400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>217800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>236400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>138200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>152100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>162400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>119400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>129300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>84900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>49800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3063,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2977,19 +3081,19 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>5000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>15000</v>
       </c>
       <c r="I47" s="3">
         <v>15000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="J47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2998,20 +3102,20 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>6500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,59 +3131,62 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3700</v>
       </c>
       <c r="O48" s="3">
         <v>3700</v>
       </c>
       <c r="P48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,29 +3199,32 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E49" s="3">
         <v>45000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3130,8 +3240,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3157,8 +3267,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,59 +3403,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>101700</v>
+        <v>101400</v>
       </c>
       <c r="E52" s="3">
         <v>101700</v>
       </c>
       <c r="F52" s="3">
+        <v>101700</v>
+      </c>
+      <c r="G52" s="3">
         <v>102000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1400</v>
       </c>
       <c r="J52" s="3">
         <v>1400</v>
       </c>
       <c r="K52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3471,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,59 +3539,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>352900</v>
+      </c>
+      <c r="E54" s="3">
         <v>364300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>297200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>278100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>294700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>235200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>247700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>222200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>240900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>141900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>172800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>146700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>158300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>51500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3607,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,59 +3661,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
         <v>10500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,8 +3727,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3662,59 +3795,62 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E59" s="3">
         <v>40900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>13600</v>
       </c>
       <c r="M59" s="3">
         <v>13600</v>
       </c>
       <c r="N59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="O59" s="3">
         <v>10300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,59 +3863,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E60" s="3">
         <v>51400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>45200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>42600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>35000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,8 +3931,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3857,59 +3999,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E62" s="3">
         <v>143700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>141400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>134700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>131800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>128400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>122900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>53300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4067,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,59 +4271,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>210900</v>
+      </c>
+      <c r="E66" s="3">
         <v>195100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>186500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>169200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>174400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>178800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>151900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>88400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4339,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4382,14 +4549,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>119800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>59800</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4402,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,59 +4637,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-392800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-356400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-320700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-293800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-257200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-314700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-267600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-223700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-173200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-136000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-114500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-91200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4705,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,59 +4909,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E76" s="3">
         <v>169300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>108900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>120200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>95700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>133900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>172100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>120300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>136200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>156100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>130300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>146200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-28000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-16100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4977,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,64 +5045,67 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,59 +5118,62 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>57500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-47100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-43900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-50500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5186,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,25 +5214,26 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5059,10 +5257,10 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -5082,8 +5280,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,59 +5620,62 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-39700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-34200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-40200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-36300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,8 +5688,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,22 +5716,23 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5530,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -5539,16 +5759,16 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5562,8 +5782,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,58 +5918,61 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-79500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>24000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>36500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>108000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>28000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>33800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58400</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5757,8 +5986,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6014,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6080,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,58 +6284,61 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>86100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>65900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>134500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>44700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>68400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>58800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -6107,13 +6352,16 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6151,8 +6399,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
@@ -6172,59 +6420,62 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>75500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-51400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>93300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>60100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,6 +6486,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,88 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -758,35 +759,38 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E8" s="3">
         <v>27900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,8 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -826,29 +830,32 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -894,29 +901,32 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E10" s="3">
         <v>23400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -962,8 +972,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,62 +1001,63 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E12" s="3">
         <v>31100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>35000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4900</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1070,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1124,16 +1141,19 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1141,12 +1161,12 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>-108000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1179,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1192,8 +1212,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1260,8 +1283,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,62 +1309,63 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E17" s="3">
         <v>62100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>51700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-59300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>47800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,35 +1378,38 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>62400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-42800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,18 +1425,18 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-15900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-14000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1419,8 +1449,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,35 +1478,36 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,18 +1523,18 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1513,35 +1547,38 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-32500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-41300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-39000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1557,12 +1594,12 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-15100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,41 +1618,44 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3800</v>
       </c>
       <c r="H22" s="3">
         <v>3800</v>
       </c>
       <c r="I22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J22" s="3">
         <v>5700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1631,11 +1671,11 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1649,62 +1689,65 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>57600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-47100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-43900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-50500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,23 +1760,26 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-6600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1807,8 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1776,8 +1822,8 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1785,8 +1831,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,62 +1902,65 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>57500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-47100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,62 +1973,65 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-35700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>57500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-47100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-50500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1989,8 +2044,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2057,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2125,8 +2186,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2261,35 +2328,38 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2305,18 +2375,18 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,62 +2399,65 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-35700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>57500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-47100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-50500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2397,8 +2470,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,62 +2541,65 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-35700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>57500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-47100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-50500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2533,67 +2612,70 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2606,8 +2688,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,62 +2744,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E41" s="3">
         <v>28000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>55800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>90700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>83000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>72000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>49500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2726,59 +2813,62 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E42" s="3">
         <v>123700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>149600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>69700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>93600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>125200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>134200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>131900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>122400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>89700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>85000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>66300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>87500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>104700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>95400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>42400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,32 +2884,35 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E43" s="3">
         <v>24000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +2928,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2862,29 +2955,32 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E44" s="3">
         <v>5600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +2993,8 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2930,62 +3026,65 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2998,62 +3097,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E46" s="3">
         <v>190200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>215600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>147200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>155300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>166600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>196800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>228400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>217800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>236400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>138200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>152100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>162400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>119400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>129300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>84900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>49800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3066,13 +3168,16 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -3084,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>5000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>15000</v>
       </c>
       <c r="J47" s="3">
         <v>15000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3105,20 +3210,20 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>6500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3134,62 +3239,65 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3700</v>
       </c>
       <c r="P48" s="3">
         <v>3700</v>
       </c>
       <c r="Q48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3202,32 +3310,35 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E49" s="3">
         <v>59000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>46100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3243,8 +3354,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3270,8 +3381,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3338,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,62 +3523,65 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E52" s="3">
         <v>101400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>101700</v>
       </c>
       <c r="F52" s="3">
         <v>101700</v>
       </c>
       <c r="G52" s="3">
+        <v>101700</v>
+      </c>
+      <c r="H52" s="3">
         <v>102000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>101800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1400</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
       </c>
       <c r="L52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
       </c>
       <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3594,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3542,62 +3665,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>333500</v>
+      </c>
+      <c r="E54" s="3">
         <v>352900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>364300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>297200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>278100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>294700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>235200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>247700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>222200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>240900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>141900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>155800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>172800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>146700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>158300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>51500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,8 +3736,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,62 +3792,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3730,8 +3861,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3798,62 +3932,65 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E59" s="3">
         <v>56000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>13600</v>
       </c>
       <c r="N59" s="3">
         <v>13600</v>
       </c>
       <c r="O59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="P59" s="3">
         <v>10300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,62 +4003,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E60" s="3">
         <v>64700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4074,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4002,62 +4145,65 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E62" s="3">
         <v>146100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>143700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>141400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>134700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>131800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>128400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>122900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>53300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>50300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4070,8 +4216,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4206,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4274,62 +4429,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E66" s="3">
         <v>210900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>195100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>186500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>174400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>178800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>151900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4342,8 +4500,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4436,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4552,14 +4720,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>119800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>59800</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4572,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4640,62 +4811,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-423000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-392800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-356400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-320700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-293800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-257200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-314700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-267600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-223700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-173200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-136000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-114500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-91200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-51900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-36900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,8 +4882,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4776,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4912,62 +5095,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E76" s="3">
         <v>142000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>169300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>108900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>120200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>95700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>133900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>172100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>120300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>136200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>156100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>130300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>146200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-28000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-16100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4980,8 +5166,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5048,67 +5237,70 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5121,62 +5313,65 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-35700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>57500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-47100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-50500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5189,8 +5384,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,28 +5413,29 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5260,10 +5459,10 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -5283,8 +5482,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5351,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5487,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5623,62 +5837,65 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-34300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-39700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-34200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-40200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-36300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5691,8 +5908,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,28 +5937,29 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-19000</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5753,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -5762,16 +5983,16 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -5785,8 +6006,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5921,61 +6148,64 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E94" s="3">
         <v>26800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-79500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>24000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>36500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>108000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>28000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>33800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -5989,8 +6219,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,8 +6248,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6083,8 +6317,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6151,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6219,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6287,61 +6530,64 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>86100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>65900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>134500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>44700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>68400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>58800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -6355,17 +6601,20 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -6402,8 +6651,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -6423,62 +6672,65 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>75500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-51400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>93300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>60100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6489,6 +6741,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
@@ -762,38 +763,41 @@
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E8" s="3">
         <v>31600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -833,32 +837,35 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E9" s="3">
         <v>5000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,32 +911,35 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E10" s="3">
         <v>26600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,8 +985,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,65 +1015,66 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>35000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4900</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1144,19 +1161,22 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1164,12 +1184,12 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>-108000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1202,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1215,8 +1235,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1286,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,65 +1336,66 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E17" s="3">
         <v>58700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>51700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-59300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>47800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>47600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,38 +1408,41 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>62400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-42800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,18 +1458,18 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-15900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-14000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1452,8 +1482,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,38 +1512,39 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,18 +1560,18 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1550,38 +1584,41 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-68700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-24400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-32500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>61700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-41300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-39000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1597,12 +1634,12 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-15100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,44 +1658,47 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3800</v>
       </c>
       <c r="I22" s="3">
         <v>3800</v>
       </c>
       <c r="J22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K22" s="3">
         <v>5700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,11 +1714,11 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1692,65 +1732,68 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>57600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-47100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-43900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-50500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-37200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,26 +1806,29 @@
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-6600</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1810,8 +1856,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1825,8 +1871,8 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -1834,8 +1880,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1905,65 +1954,68 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>57500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-47100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-50500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-37200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1976,65 +2028,68 @@
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>57500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-47100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-50500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2047,8 +2102,11 @@
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2189,8 +2250,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,38 +2398,41 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2378,18 +2448,18 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2402,65 +2472,68 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>57500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-47100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-50500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,8 +2546,11 @@
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,65 +2620,68 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>57500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-47100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-50500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,70 +2694,73 @@
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2691,8 +2773,11 @@
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,65 +2831,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>297200</v>
+      </c>
+      <c r="E41" s="3">
         <v>49400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>55300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>90700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>142100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>83000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>72000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>49500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,62 +2903,65 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E42" s="3">
         <v>82700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>123700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>149600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>69700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>93600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>125200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>134200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>131900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>122400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>89700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>85000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>66300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>87500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>104700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>95400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>42400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2887,35 +2977,38 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E43" s="3">
         <v>24700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3024,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2958,32 +3051,35 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E44" s="3">
         <v>6600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,8 +3092,8 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3029,65 +3125,68 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>9000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3100,65 +3199,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>383500</v>
+      </c>
+      <c r="E46" s="3">
         <v>172300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>190200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>215600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>147200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>155300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>166600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>196800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>228400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>217800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>236400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>138200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>152100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>162400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>119400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>129300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>84900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>49800</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,16 +3273,19 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3192,19 +3297,19 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>5000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>15000</v>
       </c>
       <c r="K47" s="3">
         <v>15000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3213,20 +3318,20 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>6500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3242,65 +3347,68 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>3700</v>
       </c>
       <c r="Q48" s="3">
         <v>3700</v>
       </c>
       <c r="R48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3313,35 +3421,38 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E49" s="3">
         <v>57700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>59000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3357,8 +3468,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3384,8 +3495,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,65 +3643,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>101300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>101400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>101700</v>
       </c>
       <c r="G52" s="3">
         <v>101700</v>
       </c>
       <c r="H52" s="3">
+        <v>101700</v>
+      </c>
+      <c r="I52" s="3">
         <v>102000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1400</v>
       </c>
       <c r="L52" s="3">
         <v>1400</v>
       </c>
       <c r="M52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
       <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,8 +3717,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,65 +3791,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>443600</v>
+      </c>
+      <c r="E54" s="3">
         <v>333500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>352900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>364300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>297200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>278100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>294700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>235200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>247700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>222200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>240900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>141900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>155800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>172800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>146700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>158300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>51500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3739,8 +3865,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,65 +3923,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3864,8 +3995,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3935,65 +4069,68 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E59" s="3">
         <v>42400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>13600</v>
       </c>
       <c r="O59" s="3">
         <v>13600</v>
       </c>
       <c r="P59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>10300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4006,65 +4143,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E60" s="3">
         <v>48800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>45200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>50400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4077,13 +4217,16 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>305600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4148,65 +4291,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>143500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>146100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>143700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>141400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>134700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>131800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>128400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>122900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>53300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>50300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4219,8 +4365,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,65 +4587,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E66" s="3">
         <v>192400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>210900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>195100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>186500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>174400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>178800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>151900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>68800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4503,8 +4661,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4723,14 +4891,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>119800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>59800</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4743,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,65 +4985,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-497000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-423000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-392800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-356400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-320700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-293800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-257200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-314700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-267600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-223700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-173200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-136000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-114500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-91200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-51900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4885,8 +5059,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,65 +5281,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E76" s="3">
         <v>141200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>142000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>169300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>110700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>108900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>120200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>95700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>133900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>172100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>120300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>136200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>156100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>130300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>146200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-28000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-16100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5169,8 +5355,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,70 +5429,73 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5316,65 +5508,68 @@
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>57500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-47100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-50500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5387,8 +5582,11 @@
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,8 +5612,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5423,22 +5622,22 @@
         <v>1300</v>
       </c>
       <c r="E83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5462,10 +5661,10 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
@@ -5485,8 +5684,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,65 +6054,68 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-34300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-39700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-34200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-40200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-36300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5911,8 +6128,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,20 +6158,21 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-15100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5959,11 +6180,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5977,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -5986,16 +6207,16 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
@@ -6009,8 +6230,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,64 +6378,67 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E94" s="3">
         <v>42000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>26800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-79500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>24000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>36500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>108000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>28000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>33800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-64200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
@@ -6222,8 +6452,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6320,8 +6554,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,64 +6776,67 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E100" s="3">
         <v>13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>86100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>65900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>134500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>44700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>68400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>58800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
@@ -6604,20 +6850,23 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -6654,8 +6903,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -6675,65 +6924,68 @@
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E102" s="3">
         <v>21400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>75500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-51400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>93300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>60100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6744,6 +6996,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
   <si>
     <t>MIRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,41 +767,44 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E8" s="3">
         <v>37500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,8 +820,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -840,35 +844,38 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E9" s="3">
         <v>6800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,35 +921,38 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E10" s="3">
         <v>30700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,8 +998,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,68 +1029,69 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E12" s="3">
         <v>22000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>35000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>38100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4900</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,22 +1181,25 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>49100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1187,12 +1207,12 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>-108000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1205,8 +1225,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1238,8 +1258,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,68 +1363,69 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E17" s="3">
         <v>110800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>51700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-59300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>47600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,41 +1438,44 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-73300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-32700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>62400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1461,18 +1491,18 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-15900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-14000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,8 +1515,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,41 +1546,42 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E20" s="3">
         <v>3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,18 +1597,18 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,41 +1621,44 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-68700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-24400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-30600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-32500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>61700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-41300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-39000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,12 +1674,12 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-15100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,47 +1698,50 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
         <v>3700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3800</v>
       </c>
       <c r="J22" s="3">
         <v>3800</v>
       </c>
       <c r="K22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L22" s="3">
         <v>5700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,11 +1757,11 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1735,68 +1775,71 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-73700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>57600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-47100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-43900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-50500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,29 +1852,32 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-6600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1859,8 +1905,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
@@ -1874,8 +1920,8 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1883,8 +1929,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,68 +2006,71 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-74000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>57500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-47100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-50500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-37200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,68 +2083,71 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-74000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-47100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-50500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-21300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2105,8 +2160,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,41 +2468,44 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,18 +2521,18 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,68 +2545,71 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-74000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>57500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-47100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-50500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-21300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,8 +2622,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,68 +2699,71 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-74000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>57500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-47100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-50500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-21300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,73 +2776,76 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2858,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,68 +2918,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>303100</v>
+      </c>
+      <c r="E41" s="3">
         <v>297200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>55300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>91900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>90700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>142100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>83000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>49500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,65 +2993,68 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="3">
         <v>32700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>82700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>123700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>149600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>69700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>93600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>125200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>134200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>131900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>122400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>89700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>85000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>66300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>87500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>104700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>95400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>42400</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,38 +3070,41 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E43" s="3">
         <v>35300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,8 +3120,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3054,35 +3147,38 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E44" s="3">
         <v>8500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3191,8 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3128,68 +3224,71 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3202,68 +3301,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>388600</v>
+      </c>
+      <c r="E46" s="3">
         <v>383500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>172300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>190200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>215600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>147200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>155300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>166600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>196800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>228400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>217800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>236400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>138200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>152100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>162400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>119400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>129300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>84900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>49800</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3378,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3287,8 +3392,8 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3300,19 +3405,19 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>5000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>15000</v>
       </c>
       <c r="L47" s="3">
         <v>15000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3321,20 +3426,20 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>6500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>16100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,68 +3455,71 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>3700</v>
       </c>
       <c r="R48" s="3">
         <v>3700</v>
       </c>
       <c r="S48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1300</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3424,38 +3532,41 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>258300</v>
+      </c>
+      <c r="E49" s="3">
         <v>56400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>57700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>59000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3582,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3498,8 +3609,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,68 +3763,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>101300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>101400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>101700</v>
       </c>
       <c r="H52" s="3">
         <v>101700</v>
       </c>
       <c r="I52" s="3">
+        <v>101700</v>
+      </c>
+      <c r="J52" s="3">
         <v>102000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1400</v>
       </c>
       <c r="M52" s="3">
         <v>1400</v>
       </c>
       <c r="N52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
       </c>
       <c r="R52" s="3">
+        <v>200</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3720,8 +3840,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,68 +3917,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>650600</v>
+      </c>
+      <c r="E54" s="3">
         <v>443600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>333500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>352900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>364300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>297200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>294700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>235200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>247700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>222200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>240900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>141900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>155800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>172800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>146700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>158300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>51500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,68 +4054,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E57" s="3">
         <v>14400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4129,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4072,68 +4206,71 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E59" s="3">
         <v>43800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>56000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>13600</v>
       </c>
       <c r="P59" s="3">
         <v>13600</v>
       </c>
       <c r="Q59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="R59" s="3">
         <v>10300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4146,68 +4283,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E60" s="3">
         <v>58200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>42600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,17 +4360,20 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E61" s="3">
         <v>305600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -4294,68 +4437,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>143500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>146100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>143700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>141400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>134700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>131800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>128400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>122900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>53300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1200</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,8 +4514,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,68 +4745,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>381600</v>
+      </c>
+      <c r="E66" s="3">
         <v>365000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>192400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>210900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>195100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>186500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>169200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>174400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>178800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>151900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>88400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7700</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4894,14 +5062,14 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>119800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>59800</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,68 +5159,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-520600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-497000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-423000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-392800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-356400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-320700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-293800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-257200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-314700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-267600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-223700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-173200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-136000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-114500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-91200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-51900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5062,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,68 +5467,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>269100</v>
+      </c>
+      <c r="E76" s="3">
         <v>78600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>141200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>142000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>169300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>110700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>108900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>120200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>95700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>133900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>172100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>120300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>136200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>156100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>130300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>146200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-28000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-16100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5358,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,73 +5621,76 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5511,68 +5703,71 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-74000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>57500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-47100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-50500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-21300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5585,8 +5780,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,34 +5811,35 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="E83" s="3">
         <v>1300</v>
       </c>
       <c r="F83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5664,10 +5863,10 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -5687,8 +5886,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,68 +6271,71 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-34300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-39700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-36300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-17500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-18400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-15200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6131,8 +6348,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,23 +6379,24 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -6183,11 +6404,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6201,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -6210,16 +6431,16 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
@@ -6233,8 +6454,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,67 +6608,70 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-182800</v>
+      </c>
+      <c r="E94" s="3">
         <v>35500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>42000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>26800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-79500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>24000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>36500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>108000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>28000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>33800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-64200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58400</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
@@ -6455,8 +6685,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,67 +7022,70 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E100" s="3">
         <v>114700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>86100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>65900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>134500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>44700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>68400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>58800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
@@ -6853,23 +7099,26 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -6906,8 +7155,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
@@ -6927,68 +7176,71 @@
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>147800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>75500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-51400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>93300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>60100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2500</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6999,6 +7251,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
